--- a/src/main/resources/template/excel/export/activityDetailQueryForFullReduction.xlsx
+++ b/src/main/resources/template/excel/export/activityDetailQueryForFullReduction.xlsx
@@ -148,10 +148,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>${obj.categoryName}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>买满金额</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -165,6 +161,10 @@
   </si>
   <si>
     <t>${obj.discountPrice}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.goodCategoryName}</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -643,7 +643,7 @@
   <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -704,10 +704,10 @@
         <v>8</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>10</v>
@@ -733,7 +733,7 @@
         <v>22</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>3</v>
@@ -748,10 +748,10 @@
         <v>9</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>11</v>

--- a/src/main/resources/template/excel/export/activityDetailQueryForFullReduction.xlsx
+++ b/src/main/resources/template/excel/export/activityDetailQueryForFullReduction.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace_jxc\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\java\workspace\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -643,7 +643,7 @@
   <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -747,10 +747,10 @@
       <c r="G3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="4" t="s">
         <v>27</v>
       </c>
       <c r="J3" s="3" t="s">
@@ -775,8 +775,8 @@
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
